--- a/lab1/weights.xlsx
+++ b/lab1/weights.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="weights" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -23,7 +25,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -31,24 +33,91 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -254,19 +323,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
+    <sheetView showZeros="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7884703773945" defaultRowHeight="15" customHeight="0" zeroHeight="0"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="16384" min="1" outlineLevel="0" style="0" width="10.7884703773945"/>
+    <col width="10.7884703773945" bestFit="1" customWidth="1" min="1" max="16384"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
+  <pageMargins left="0.790000021457672" right="0.790000021457672" top="0.790000021457672" bottom="0.790000021457672" header="0.19680555164814" footer="0.19680555164814"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.06012691421916119</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-0.2912425615740045</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.1699988408831751</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.2166446807992349</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-0.1924111633028991</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-0.08840121934086259</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-0.1770058804365406</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.1362867652495212</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-0.1901254096234598</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-0.03070983371618874</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.1090704839480584</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-0.2298173527910067</v>
+      </c>
+      <c r="N1" t="n">
+        <v>0.189941596028195</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-0.1645902775450126</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-0.1240271406136364</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-0.08604693426791324</v>
+      </c>
+      <c r="R1" t="n">
+        <v>0.0005946236922343973</v>
+      </c>
+      <c r="S1" t="n">
+        <v>-0.2490350825263085</v>
+      </c>
+      <c r="T1" t="n">
+        <v>0.2617485939474293</v>
+      </c>
+      <c r="U1" t="n">
+        <v>0.05495488348928856</v>
+      </c>
+      <c r="V1" t="n">
+        <v>-0.05161659261423596</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.2673881955523547</v>
+      </c>
+      <c r="X1" t="n">
+        <v>-0.1480889378676368</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>0.161718389424817</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>-0.06032165373774129</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2744084244063276</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.00864303647590603</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>-0.1946466060995175</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>-0.116316029618107</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2086318708776316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1901438037594728</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1273235507410882</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1157054432473933</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.110728929157518</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.03288436583643456</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.1785128728990093</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.001310651532021867</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.14185655340129</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2949054554019414</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1230933703263458</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.1231152377934587</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.09659605128566712</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2464631571108009</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.206961455967101</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2662666423245742</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.2021826568045085</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.06428707514435117</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2832042951179367</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.07165100929819285</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1740089513504357</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.05859047608027074</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2857039720333305</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.07247775361166925</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.1221668672483504</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.1106065386272914</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1872029412297734</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>-0.08094959486402251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2533630987128353</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2332914366328052</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2818535602049626</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1019693768971033</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05588308140919246</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.07353271104896861</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2621216918128016</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.03790727785005138</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.159813228545398</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.113380036901476</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08964609781649308</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1203976345089297</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.2537948358382882</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.04611782119187158</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.03459363585389474</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2800893157261203</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1393346282553513</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1304404237400573</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2033235330543373</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1285032789752272</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1919984546976206</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.09713653697718658</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1314169417597434</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1789077526311469</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.05652833724434495</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1876096389569169</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.256963643749554</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>-0.1111065162887793</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1961547185069416</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.04816832454303571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.24187026810998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01908510099940131</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1818776471005873</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.1364963894218624</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0247797454994268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.03717426255582429</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07357962591438266</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.04801026201315051</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.246628868374764</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2328418570943504</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.2381506195510499</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2102424098415129</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.08858664345394462</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02908923170141625</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.107717915610462</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1325451845035971</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.06642617494739461</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05125433261584078</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1421011472268695</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1462629103843516</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.2614649196928604</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2106346134600678</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.08772582800497697</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.206594254874196</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1316253209132254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>0.1042197092303327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2233369789756321</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06845328125658376</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1715540206982156</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.196954022029896</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.1042486005626202</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2358848437756417</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.182361023717972</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.1112002490495343</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2455055590550996</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1005958927874632</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1300184011683293</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.2087737600447494</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1387284798984677</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1900695406561461</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.04018236744626308</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1792549037300104</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2228591334137077</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1343525973812016</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.1040779270061123</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1721046976307758</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.1785757759916172</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.11072949973027</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1646525523316525</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1918450980948328</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1673588207176518</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02393814897976659</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.05162022530962107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>-0.233516091189263</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07159722848994543</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08280927820194861</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1761670676930558</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1994559462720252</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2402241577479904</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.09809081347961265</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2530554624655365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02836238811447955</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2009931986059881</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1926071641484468</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2048572485352267</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.1003969230939365</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1505900885539668</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2250204159280069</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.03770381184265698</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0581354648309102</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.07159662056909705</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.08311426906909739</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2337229282093464</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.04553760281709174</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1745032872600992</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.2016609630354055</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1748891574647015</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.2522759134246297</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04421263580509871</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01885760140023479</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.2619966850667186</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>-0.07316733596060604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1814011758874109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2278634700476985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.08317897216337414</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06820215474125896</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.25383670724436</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.131090196708035</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.07013361133599652</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.2626835700140731</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1545322383274482</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.003937239085880784</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.260544815474799</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.07403621548146749</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.2430590343577475</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2040395535654697</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.290911221196781</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.2712671500855549</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.08192072717693316</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2715481615830709</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1210663144444455</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1785299384309674</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.2815253831209064</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1933718006353257</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.07970723019691919</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2988374271258415</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.2512708520479925</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.1848121581346853</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2925274333551434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>-0.09302987696214757</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.130510890373694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.06708840948242442</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.1474234459306736</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1698018143361529</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2027769317769326</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1802034338735874</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2093823385761834</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.06830862581524441</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1980404104010535</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0979081075870416</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1670432756621606</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2159252856552017</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0507650457713385</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2424021036821922</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1975760776336202</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.163770518057544</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.25459092415785</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1671755397172161</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1872174863770334</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2446903725326663</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2090255109881647</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.277451589391652</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1448967464126484</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1006850381169994</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.110704975602322</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1209551031687774</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.05358845041886609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.2854056219043311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05206454140790401</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2748927248695187</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06334543355234934</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1564807371546531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.16402788824602</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.02512667894896692</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.09943716849402653</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1777863235992676</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.01893344855103174</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1457574313558733</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1574121568096804</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.09757179259671545</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.1402392223213597</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.1892863084489121</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.002621237415828981</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.03391384818610932</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1738487503789567</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03920203932451521</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2243934694035031</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1462540221191041</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.08582834671122838</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.07513165127224852</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1874580949552839</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2930840322779966</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1654582386092763</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.05657702157665029</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0676972563726802</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>-0.2713491455535791</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2680184159034186</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0111602666437608</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08027194720935549</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1995050986694997</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06438435997687819</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.1689127354829993</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.07153399939572305</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.2258185360037609</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.1008041198606253</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.2708071344617752</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2203352545391467</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.2197482062597476</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2835539198702183</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2798289306188549</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01707717229930528</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2261924265002593</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.2477211033700837</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.1215712490410449</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.2755892322162325</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.1366158671627469</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.133678225426854</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.1161073077240765</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1054719563124611</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.1424907989279997</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.04221268739193701</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.03989122158036873</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0008904362248607911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>-0.1541357508085794</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.009392234681817935</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2150413551225112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03653577298372812</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.07096677224823006</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2330062234798903</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09874127787930481</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2268109195776989</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1938335461141856</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.175304900807388</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.09496256359870897</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.08808269538629032</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1086364377752304</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2007200399200414</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2604431701779972</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2073824393579954</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.116683599074906</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.06114498230202586</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2156099587355266</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.07479285133791752</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.05874360179386584</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1257946484586664</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.277856388179315</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1851448921626977</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1956360820823927</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1583588405151116</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2656690583049773</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.01817474236572492</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>0.1556890622462097</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2818000946958613</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1490395227617907</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08081583081039245</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04042727072161734</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06093928220249589</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1793542938682075</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0643315003623107</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2306989862826332</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.2719446613352898</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.1754498395587241</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2022425344612523</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2810424497058651</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.00750709036414493</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1519941546701479</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.1683084918744984</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.2867979170555909</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.1551179976162584</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.07204328539747495</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.001241905299117718</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2427953334570331</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.04132630919130487</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.1876734403691637</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2499921330907792</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.08664143399313101</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.2218687831759802</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.02869471789328804</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1914306843589074</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>-0.256852849498935</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2626511610994756</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.2340490270469015</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.08330357606492919</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2228250362176318</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.02579574303294363</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1578484156141332</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2939702305778221</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.0798688978084692</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.117369156768468</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01819587258534705</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05094182181555662</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08149811389902223</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.1331683343449472</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.09903174619242727</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.2996606193430483</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.07633550418425969</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.01496051045982183</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.008005791075964441</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.2765223236437063</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.08131720934129452</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.01349996165229356</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.2472031201328298</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04789411833039131</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.1512309338544551</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0698424055639254</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1474859379685963</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1908471407232933</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>-0.0411771490046115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.08200331958283344</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2332079992275579</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1170350388308571</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2295196596168298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2788697587657573</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.2438798106854001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1091117432502736</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1304899625621991</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.179295865327844</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.07333900955650124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.217594474494229</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.06519485896108684</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.1515219589807033</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.06001137106157112</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.1956003887190391</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.2366746837095365</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.05903267781842803</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.08013083538257196</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2139315526727746</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.007952242875728488</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.1973543154502788</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.1374444934454089</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-0.03542436456433251</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.1369292359097632</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.04578817911820149</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1780498646452391</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.04003672812896963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>-0.09948075563780448</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2712734594294895</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.02057751045635808</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2242625058650781</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1686894888542393</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.03155737173984552</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.247642756246062</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2314059850498004</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1426949960716563</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.009190158206122845</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.112674497521035</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.055392981318134</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.2481596846347844</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.2898763597872716</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.07873409527761288</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1714250824935314</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.03838751154626929</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.09685544634684462</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.1533377555414378</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.01284339606527729</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2618249082620852</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.03741042653802978</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.1105676881586988</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.222347254492754</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2066435947176216</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.25476489735126</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1831793179268367</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1911054141525502</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>0.05762409966036558</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2027215028016017</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2425626133343198</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2145558912156326</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1820622087396439</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.02922047908530462</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2234160204561255</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.2264927266296337</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.1665424913180631</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0615931315929884</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2027583566429182</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2982720370708482</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.05904496982311491</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2328041231243322</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.03888532875663525</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.03347862818663261</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.280438833655443</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.04431144302307316</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1317529069522761</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01672310776695196</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.2443166405153097</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.1000451511344594</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2122838496081248</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.05044851498110786</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.1298667446101668</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.1611860108439759</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.2744263035038421</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.235299192978406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>0.2361320119233993</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1254225081858505</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1312728275785634</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2836105451243215</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.04354052611219383</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08324342889225095</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.2618266828191291</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.2014326074780436</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006962376294341377</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.2553882062484508</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1022406084561937</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.03496166440619414</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2166384252628572</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.01285953170973042</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.1998420208743536</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.1999181715802248</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.08651131479179835</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1298979144946949</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.2256919867004746</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.219653722653927</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2749340327875304</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.03620736558422299</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.1766266850296839</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.2951979874981321</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2968769021609164</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.03844078377812288</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1944255946256835</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.2659726686433717</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>0.03909505607541403</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2033118642066343</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.048635428461198</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.02752944273109476</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1364277352743548</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02455575190566045</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.05945933703100048</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.2750385640774762</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0303722491923431</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.09625096372239456</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.03640269945346364</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1968792361940488</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2875251053826424</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2367664326558175</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1802589707722533</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.193245254471961</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.09834073723541209</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.2424347333722647</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.04296789210521529</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1875265666151739</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.178434182246488</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.1371458125990505</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.2756844051449621</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.2210873377958508</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2194405653415578</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.2606397230038811</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.262721654669366</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.2198939732348111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>-0.1173383672408808</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2241725658122679</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.07436104135078386</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.04387977138509264</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1461063825257641</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2133220041632344</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.1621178255208935</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.131345523337046</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.02986705153283253</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.2876282659678004</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.243680049204518</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1859946074795431</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.2713779723543629</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.06433437853422386</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.2577624055535111</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.01037381596280329</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.02188072110183381</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.07094428917532469</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1954647045098916</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.1861798026028967</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1571969838649803</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.2926268012894551</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.1341820857005647</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-0.1131822183410744</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.1715653493154861</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.1663891510350995</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.1742141604257005</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.1103902796047821</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>0.1950884261694659</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1161685433048033</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1791838392105639</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1352620171328816</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2828832747257345</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1185160190602113</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.03366092716976526</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2284339203211889</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.01278262264454294</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2434100778061311</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.209774477047016</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2765026575280552</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1536958835537803</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.2323393720212397</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.06129482614688092</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.216234708106801</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1269868789570994</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2043576237226989</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.02793773325264848</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2121486921181087</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.129998503815265</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2625412431460591</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.2170051302385095</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.179375450441826</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.2755247917804324</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.1249447553206408</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1257019508085644</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.208075134907528</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>0.1816826785337518</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.01947828120714001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.1232442297881909</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.2123938138355771</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2553491052396629</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1506903188575724</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2851164418910169</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.2859924940090572</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.1584735676207337</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.02583584261890592</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.166901520203991</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2272257096124914</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1587024358070199</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.00514157849863689</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1233042431636805</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.1973129133164431</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1876003216582507</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2053976836377343</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.002353688231255535</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2059129314740963</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.01452850547310347</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.1476860750422028</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.09403031597929096</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.2948165307133562</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.2071407604452482</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.08849570974861762</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.1477883257780424</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.1302512665338866</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>0.2720830414353777</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2752986570350122</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1146854052072207</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.299722038860337</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2359754841193716</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2464733106926571</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1357391217347608</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2914510613653961</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2762001018587485</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1071237760719063</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.110096771282424</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.002184016847851522</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.2978511529286044</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.04703929341237056</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.02036055777340301</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.07564801856611114</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.2740409399437934</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2515382661606041</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1727441002951572</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.298688787637943</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.2611275701984642</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2328119519422864</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.006285100746798999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.221208094735516</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.07850993754959015</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.1975698951219947</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.277426210218119</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.2765900792430858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>-0.1679069627568847</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2414628617888858</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02037539479712763</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.2923918278348706</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2628575791240492</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1313662858797591</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1619265370357243</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1199331814377733</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.2443301054163711</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.01572222838137904</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.1122015231346576</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1264953791350611</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1932686901474227</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1876878511612645</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.04465593136958024</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1462552064001676</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1717239293855293</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.01499098590149484</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.0285774361233615</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.2451017120198674</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1375589683191103</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1364327970878558</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.1330796575419362</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1734688523112625</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.08199281308802642</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.07731421116332499</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.2066580400305074</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.01062932549893514</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>0.1496530560482767</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02573445697505977</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.1168240983840403</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.05197161344293205</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2357259841748287</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.08387067724987879</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.1317184964309149</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.03627110724348476</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.1459480053077827</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.275552436987075</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1141500670379976</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1172393249734527</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1766595529900979</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.08800352706958797</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.1242329889264756</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.02715562807975197</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.1207989206626674</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.2933100546386773</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.2515493217935493</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.2814368547265688</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.158682589215507</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.2645796822406901</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.01503469321974582</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.2615495745142423</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.2761208519503358</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.2889846429938135</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.2653161930004178</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.2525115177423463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>-0.107642757232745</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1677635160813384</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.0396164969415021</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1539540042759462</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.03959254636140874</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0117292188381507</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0750628018577893</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1143338142936017</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.2691180611118038</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.2044648101339954</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2178829255113099</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1766691202875033</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2415927332691973</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.05057397326004825</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.002027660987754754</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.06535533691489376</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.2208956712737895</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.1401330342427305</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2117603456108093</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.06354564001065416</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.03124709722429864</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.16711506669318</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.1817267785678069</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.01828340456250532</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.1645998200962457</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.01634355410035354</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.06135314672314343</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.2048932097577681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>-0.05599216363383547</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.08789433779951256</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04242393593362243</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.05581074876280681</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0003443311630107471</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2746936759589609</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1868152922666435</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1707775516321726</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.1669202764428041</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.294695346578396</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.01008490249971833</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.08006867609784207</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09267125299498302</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1540289794516897</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.1030151971614756</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2352858935004268</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.03338102680045857</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2212997445694249</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1691610650329576</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1025520262073918</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.1811133312948753</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.0912101172131573</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2677800709033571</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.1881718126464511</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-0.1102641127721435</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.1933241113895399</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.1316955211996929</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.1748945306210203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>-0.06412332833362996</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.251857963455474</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.08576312071614939</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.01110212385716758</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.096846485114012</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.1931535574715679</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2837392083023234</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2217578958795732</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2714459816973866</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.1014279676458247</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01579970974075784</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.2144471900078524</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01769403263498504</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.06264449118592913</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02929637117427897</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.2087375072990098</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.06221283645204459</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.0149935926434922</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.2494968995334134</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.07152976599149019</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.1882640363239266</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.2846931711926681</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.210912133501929</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.03120611068792589</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.1116592603021042</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.08712399095386597</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.2217949074044127</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.1117530938360038</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>0.0148645234772245</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008478238874521205</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.05311222671758953</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.03196897065196647</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.002202709336033171</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.2499799775227621</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.008519585062438106</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.287948998867372</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1414497608560608</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.1040324352637351</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0104227002996955</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.06357605231687052</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.1643447034393763</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.2556305172726949</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.2909862120366959</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.04817365655836925</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.2439387156217909</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.05115714072144895</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.05756970820027155</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1886614861671666</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.2417050873903052</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-0.1919840059038464</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-0.07207268401046635</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.1856807715234106</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.2509849116897473</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.05492695261550018</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.1598864441133152</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.1892936167111219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>